--- a/任务管控.xlsx
+++ b/任务管控.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MTools\ZY-ZKWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\ZY-ZKWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4B9C37-F6A2-4AEC-8631-C60163E18487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7478A0B7-30F0-42DE-9AA1-627BFC80562F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9288" yWindow="876" windowWidth="17952" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25320" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>值班员签到功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>具备可视化展示服务器故障告警状态的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他事项是什么意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,18 +514,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="39" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -530,7 +534,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -538,12 +542,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -554,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -562,12 +566,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -575,12 +579,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -588,22 +592,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -611,32 +618,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
